--- a/backend/src/tmp/EDT.xlsx
+++ b/backend/src/tmp/EDT.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="25">
   <si>
     <t>EDT</t>
   </si>
@@ -61,6 +61,18 @@
     <t>observaciones</t>
   </si>
   <si>
+    <t>Entregables</t>
+  </si>
+  <si>
+    <t>papeleta</t>
+  </si>
+  <si>
+    <t>Criterios de Aceptacion</t>
+  </si>
+  <si>
+    <t>dfh</t>
+  </si>
+  <si>
     <t>1.1</t>
   </si>
   <si>
@@ -70,22 +82,10 @@
     <t>30-11-2023</t>
   </si>
   <si>
-    <t>2</t>
-  </si>
-  <si>
-    <t>otro componente</t>
-  </si>
-  <si>
-    <t>asc</t>
-  </si>
-  <si>
-    <t>09-11-2023</t>
-  </si>
-  <si>
-    <t>17-11-2023</t>
-  </si>
-  <si>
-    <t>acs</t>
+    <t>ddddd</t>
+  </si>
+  <si>
+    <t>ascasc</t>
   </si>
 </sst>
 </file>
@@ -141,8 +141,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
@@ -483,12 +486,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H5"/>
+  <dimension ref="A1:H23"/>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
   <cols>
-    <col min="1" max="1" width="10" customWidth="1"/>
-    <col min="2" max="2" width="17" customWidth="1"/>
-    <col min="3" max="3" width="13" customWidth="1"/>
+    <col min="1" max="1" width="25" customWidth="1"/>
+    <col min="2" max="3" width="13" customWidth="1"/>
     <col min="4" max="4" width="14" customWidth="1"/>
     <col min="5" max="5" width="12" customWidth="1"/>
     <col min="6" max="6" width="10" customWidth="1"/>
@@ -499,112 +501,212 @@
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" s="1" t="s">
+      <c r="B1" s="2"/>
+      <c r="C1" s="2"/>
+      <c r="D1" s="2"/>
+      <c r="E1" s="2"/>
+      <c r="F1" s="2"/>
+      <c r="G1" s="2"/>
+      <c r="H1" s="2"/>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25"/>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="C3" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="D3" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="E3" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="F2" s="1" t="s">
+      <c r="F3" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="G2" s="1" t="s">
+      <c r="G3" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="H2" s="1" t="s">
+      <c r="H3" s="2" t="s">
         <v>8</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>9</v>
-      </c>
-      <c r="B3" t="s">
-        <v>10</v>
-      </c>
-      <c r="C3" t="s">
-        <v>3</v>
-      </c>
-      <c r="D3" t="s">
-        <v>11</v>
-      </c>
-      <c r="E3" t="s">
-        <v>12</v>
-      </c>
-      <c r="F3" t="s">
-        <v>13</v>
-      </c>
-      <c r="G3" t="s">
-        <v>14</v>
-      </c>
-      <c r="H3" t="s">
-        <v>15</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="B4" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="C4" t="s">
-        <v>17</v>
+        <v>3</v>
       </c>
       <c r="D4" t="s">
         <v>11</v>
       </c>
       <c r="E4" t="s">
+        <v>12</v>
+      </c>
+      <c r="F4" t="s">
+        <v>13</v>
+      </c>
+      <c r="G4" t="s">
+        <v>14</v>
+      </c>
+      <c r="H4" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25"/>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A6" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A7" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>1</v>
+      </c>
+      <c r="B8" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25"/>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A10" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="F4" t="s">
-        <v>17</v>
-      </c>
-      <c r="G4" t="s">
-        <v>17</v>
-      </c>
-      <c r="H4" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A11" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>1</v>
+      </c>
+      <c r="B12" t="s">
         <v>19</v>
       </c>
-      <c r="B5" t="s">
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25"/>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A14" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="E14" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F14" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="G14" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="H14" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
         <v>20</v>
       </c>
-      <c r="C5" t="s">
+      <c r="B15" t="s">
         <v>21</v>
       </c>
-      <c r="D5" t="s">
+      <c r="C15" t="s">
+        <v>21</v>
+      </c>
+      <c r="D15" t="s">
+        <v>11</v>
+      </c>
+      <c r="E15" t="s">
         <v>22</v>
       </c>
-      <c r="E5" t="s">
+      <c r="F15" t="s">
+        <v>21</v>
+      </c>
+      <c r="G15" t="s">
+        <v>21</v>
+      </c>
+      <c r="H15" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25"/>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A17" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A18" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>1</v>
+      </c>
+      <c r="B19" t="s">
         <v>23</v>
       </c>
-      <c r="F5" t="s">
-        <v>21</v>
-      </c>
-      <c r="G5" t="s">
-        <v>21</v>
-      </c>
-      <c r="H5" t="s">
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25"/>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A21" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A22" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <v>1</v>
+      </c>
+      <c r="B23" t="s">
         <v>24</v>
       </c>
     </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:H1"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" scale="100" fitToWidth="1" fitToHeight="1"/>
 </worksheet>

--- a/backend/src/tmp/EDT.xlsx
+++ b/backend/src/tmp/EDT.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="230" uniqueCount="67">
   <si>
     <t>EDT</t>
   </si>
@@ -43,49 +43,175 @@
     <t>1</t>
   </si>
   <si>
-    <t>sadg</t>
+    <t>mi componente</t>
+  </si>
+  <si>
+    <t>asc</t>
+  </si>
+  <si>
+    <t>07-11-2023</t>
+  </si>
+  <si>
+    <t>30-11-2023</t>
+  </si>
+  <si>
+    <t>as</t>
+  </si>
+  <si>
+    <t>Entregables</t>
+  </si>
+  <si>
+    <t>EEEEE</t>
+  </si>
+  <si>
+    <t>Criterios de Aceptacion</t>
+  </si>
+  <si>
+    <t>aaa</t>
+  </si>
+  <si>
+    <t>1.1</t>
+  </si>
+  <si>
+    <t>hmm</t>
+  </si>
+  <si>
+    <t>fgn</t>
+  </si>
+  <si>
+    <t>21-11-2023</t>
+  </si>
+  <si>
+    <t>24-11-2023</t>
+  </si>
+  <si>
+    <t>nn</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>sdv</t>
+  </si>
+  <si>
+    <t>01-11-2023</t>
+  </si>
+  <si>
+    <t>15-11-2023</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>nuevo edt</t>
+  </si>
+  <si>
+    <t>desc</t>
   </si>
   <si>
     <t>08-11-2023</t>
   </si>
   <si>
-    <t>24-11-2023</t>
-  </si>
-  <si>
-    <t>recursos</t>
-  </si>
-  <si>
-    <t>hito</t>
-  </si>
-  <si>
-    <t>observaciones</t>
-  </si>
-  <si>
-    <t>Entregables</t>
-  </si>
-  <si>
-    <t>papeleta</t>
-  </si>
-  <si>
-    <t>Criterios de Aceptacion</t>
-  </si>
-  <si>
-    <t>dfh</t>
-  </si>
-  <si>
-    <t>1.1</t>
-  </si>
-  <si>
-    <t>dfgn</t>
-  </si>
-  <si>
-    <t>30-11-2023</t>
-  </si>
-  <si>
-    <t>ddddd</t>
-  </si>
-  <si>
-    <t>ascasc</t>
+    <t>29-11-2023</t>
+  </si>
+  <si>
+    <t>ss</t>
+  </si>
+  <si>
+    <t>hhh</t>
+  </si>
+  <si>
+    <t>oooo</t>
+  </si>
+  <si>
+    <t>mi ent 2</t>
+  </si>
+  <si>
+    <t>111</t>
+  </si>
+  <si>
+    <t>4</t>
+  </si>
+  <si>
+    <t>fghn</t>
+  </si>
+  <si>
+    <t>02-11-2023</t>
+  </si>
+  <si>
+    <t>rec</t>
+  </si>
+  <si>
+    <t>hit</t>
+  </si>
+  <si>
+    <t>obs</t>
+  </si>
+  <si>
+    <t>oooooo</t>
+  </si>
+  <si>
+    <t>crit</t>
+  </si>
+  <si>
+    <t>5</t>
+  </si>
+  <si>
+    <t>nnn</t>
+  </si>
+  <si>
+    <t>09-11-2023</t>
+  </si>
+  <si>
+    <t>02-12-2023</t>
+  </si>
+  <si>
+    <t>mmm</t>
+  </si>
+  <si>
+    <t>bbb</t>
+  </si>
+  <si>
+    <t>vvv</t>
+  </si>
+  <si>
+    <t>hhhhhhhhhhhhhhhhhh</t>
+  </si>
+  <si>
+    <t>rr</t>
+  </si>
+  <si>
+    <t>6</t>
+  </si>
+  <si>
+    <t>sdbv</t>
+  </si>
+  <si>
+    <t>gnf</t>
+  </si>
+  <si>
+    <t>uuuuu</t>
+  </si>
+  <si>
+    <t>7</t>
+  </si>
+  <si>
+    <t>nnnnnnnnnnn</t>
+  </si>
+  <si>
+    <t>8</t>
+  </si>
+  <si>
+    <t>scs</t>
+  </si>
+  <si>
+    <t>28-11-2023</t>
+  </si>
+  <si>
+    <t>9</t>
   </si>
 </sst>
 </file>
@@ -486,11 +612,12 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H23"/>
+  <dimension ref="A1:H100"/>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
   <cols>
     <col min="1" max="1" width="25" customWidth="1"/>
-    <col min="2" max="3" width="13" customWidth="1"/>
+    <col min="2" max="2" width="20" customWidth="1"/>
+    <col min="3" max="3" width="13" customWidth="1"/>
     <col min="4" max="4" width="14" customWidth="1"/>
     <col min="5" max="5" width="12" customWidth="1"/>
     <col min="6" max="6" width="10" customWidth="1"/>
@@ -544,28 +671,28 @@
         <v>10</v>
       </c>
       <c r="C4" t="s">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="D4" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E4" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F4" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G4" t="s">
         <v>14</v>
       </c>
       <c r="H4" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25"/>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
@@ -581,13 +708,13 @@
         <v>1</v>
       </c>
       <c r="B8" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25"/>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
@@ -603,7 +730,7 @@
         <v>1</v>
       </c>
       <c r="B12" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25"/>
@@ -635,34 +762,34 @@
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
+        <v>19</v>
+      </c>
+      <c r="B15" t="s">
         <v>20</v>
-      </c>
-      <c r="B15" t="s">
-        <v>21</v>
       </c>
       <c r="C15" t="s">
         <v>21</v>
       </c>
       <c r="D15" t="s">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="E15" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="F15" t="s">
         <v>21</v>
       </c>
       <c r="G15" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="H15" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25"/>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
@@ -673,34 +800,722 @@
         <v>3</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A19">
-        <v>1</v>
-      </c>
-      <c r="B19" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25"/>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25"/>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A20" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A22" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="B22" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
+        <v>1</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25"/>
     <row r="23" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A23">
-        <v>1</v>
-      </c>
-      <c r="B23" t="s">
+      <c r="A23" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D23" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="E23" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F23" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="G23" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="H23" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>26</v>
+      </c>
+      <c r="B24" t="s">
+        <v>27</v>
+      </c>
+      <c r="C24" t="s">
+        <v>25</v>
+      </c>
+      <c r="D24" t="s">
+        <v>28</v>
+      </c>
+      <c r="E24" t="s">
+        <v>29</v>
+      </c>
+      <c r="F24" t="s">
+        <v>25</v>
+      </c>
+      <c r="G24" t="s">
+        <v>25</v>
+      </c>
+      <c r="H24" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25"/>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A26" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A27" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B27" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25"/>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A29" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A30" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B30" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25"/>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A32" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B32" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C32" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D32" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="E32" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F32" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="G32" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="H32" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>30</v>
+      </c>
+      <c r="B33" t="s">
+        <v>31</v>
+      </c>
+      <c r="C33" t="s">
+        <v>32</v>
+      </c>
+      <c r="D33" t="s">
+        <v>33</v>
+      </c>
+      <c r="E33" t="s">
+        <v>34</v>
+      </c>
+      <c r="F33" t="s">
+        <v>35</v>
+      </c>
+      <c r="G33" t="s">
+        <v>36</v>
+      </c>
+      <c r="H33" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.25"/>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A35" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A36" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B36" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A37">
+        <v>1</v>
+      </c>
+      <c r="B37" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A38">
+        <v>2</v>
+      </c>
+      <c r="B38" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.25"/>
+    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A40" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A41" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B41" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8" x14ac:dyDescent="0.25"/>
+    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A43" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B43" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C43" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D43" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="E43" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F43" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="G43" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="H43" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>40</v>
+      </c>
+      <c r="B44" t="s">
+        <v>41</v>
+      </c>
+      <c r="C44" t="s">
+        <v>32</v>
+      </c>
+      <c r="D44" t="s">
+        <v>42</v>
+      </c>
+      <c r="E44" t="s">
+        <v>23</v>
+      </c>
+      <c r="F44" t="s">
+        <v>43</v>
+      </c>
+      <c r="G44" t="s">
+        <v>44</v>
+      </c>
+      <c r="H44" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8" x14ac:dyDescent="0.25"/>
+    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A46" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A47" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B47" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A48">
+        <v>1</v>
+      </c>
+      <c r="B48" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8" x14ac:dyDescent="0.25"/>
+    <row r="50" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A50" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A51" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B51" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A52">
+        <v>1</v>
+      </c>
+      <c r="B52" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8" x14ac:dyDescent="0.25"/>
+    <row r="54" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A54" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B54" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C54" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D54" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="E54" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F54" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="G54" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="H54" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A55" t="s">
+        <v>48</v>
+      </c>
+      <c r="B55" t="s">
+        <v>37</v>
+      </c>
+      <c r="C55" t="s">
+        <v>49</v>
+      </c>
+      <c r="D55" t="s">
+        <v>50</v>
+      </c>
+      <c r="E55" t="s">
+        <v>51</v>
+      </c>
+      <c r="F55" t="s">
+        <v>52</v>
+      </c>
+      <c r="G55" t="s">
+        <v>53</v>
+      </c>
+      <c r="H55" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8" x14ac:dyDescent="0.25"/>
+    <row r="57" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A57" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A58" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B58" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A59">
+        <v>1</v>
+      </c>
+      <c r="B59" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A60">
+        <v>2</v>
+      </c>
+      <c r="B60" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8" x14ac:dyDescent="0.25"/>
+    <row r="62" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A62" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A63" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B63" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8" x14ac:dyDescent="0.25"/>
+    <row r="65" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A65" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B65" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C65" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D65" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="E65" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F65" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="G65" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="H65" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="66" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A66" t="s">
+        <v>57</v>
+      </c>
+      <c r="B66" t="s">
+        <v>58</v>
+      </c>
+      <c r="C66" t="s">
+        <v>21</v>
+      </c>
+      <c r="D66" t="s">
+        <v>33</v>
+      </c>
+      <c r="E66" t="s">
+        <v>13</v>
+      </c>
+      <c r="F66" t="s">
+        <v>59</v>
+      </c>
+      <c r="G66" t="s">
+        <v>49</v>
+      </c>
+      <c r="H66" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="67" spans="1:8" x14ac:dyDescent="0.25"/>
+    <row r="68" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A68" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="69" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A69" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B69" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="70" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A70">
+        <v>1</v>
+      </c>
+      <c r="B70" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="71" spans="1:8" x14ac:dyDescent="0.25"/>
+    <row r="72" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A72" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="73" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A73" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B73" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="74" spans="1:8" x14ac:dyDescent="0.25"/>
+    <row r="75" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A75" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B75" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C75" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D75" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="E75" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F75" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="G75" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="H75" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="76" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A76" t="s">
+        <v>61</v>
+      </c>
+      <c r="B76" t="s">
+        <v>62</v>
+      </c>
+      <c r="C76" t="s">
+        <v>25</v>
+      </c>
+      <c r="D76" t="s">
+        <v>12</v>
+      </c>
+      <c r="E76" t="s">
+        <v>34</v>
+      </c>
+      <c r="F76" t="s">
+        <v>25</v>
+      </c>
+      <c r="G76" t="s">
+        <v>25</v>
+      </c>
+      <c r="H76" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="77" spans="1:8" x14ac:dyDescent="0.25"/>
+    <row r="78" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A78" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="79" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A79" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B79" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="80" spans="1:8" x14ac:dyDescent="0.25"/>
+    <row r="81" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A81" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="82" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A82" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B82" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="83" spans="1:8" x14ac:dyDescent="0.25"/>
+    <row r="84" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A84" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B84" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C84" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D84" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="E84" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F84" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="G84" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="H84" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="85" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A85" t="s">
+        <v>63</v>
+      </c>
+      <c r="B85" t="s">
+        <v>64</v>
+      </c>
+      <c r="C85" t="s">
+        <v>25</v>
+      </c>
+      <c r="D85" t="s">
+        <v>12</v>
+      </c>
+      <c r="E85" t="s">
+        <v>65</v>
+      </c>
+      <c r="F85" t="s">
+        <v>25</v>
+      </c>
+      <c r="G85" t="s">
+        <v>25</v>
+      </c>
+      <c r="H85" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="86" spans="1:8" x14ac:dyDescent="0.25"/>
+    <row r="87" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A87" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="88" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A88" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B88" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="89" spans="1:8" x14ac:dyDescent="0.25"/>
+    <row r="90" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A90" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="91" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A91" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B91" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="92" spans="1:8" x14ac:dyDescent="0.25"/>
+    <row r="93" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A93" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B93" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C93" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D93" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="E93" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F93" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="G93" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="H93" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="94" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A94" t="s">
+        <v>66</v>
+      </c>
+      <c r="B94" t="s">
         <v>24</v>
+      </c>
+      <c r="C94" t="s">
+        <v>25</v>
+      </c>
+      <c r="D94" t="s">
+        <v>28</v>
+      </c>
+      <c r="E94" t="s">
+        <v>65</v>
+      </c>
+      <c r="F94" t="s">
+        <v>25</v>
+      </c>
+      <c r="G94" t="s">
+        <v>25</v>
+      </c>
+      <c r="H94" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="95" spans="1:8" x14ac:dyDescent="0.25"/>
+    <row r="96" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A96" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="97" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A97" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B97" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="98" spans="1:8" x14ac:dyDescent="0.25"/>
+    <row r="99" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A99" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="100" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A100" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B100" s="2" t="s">
+        <v>3</v>
       </c>
     </row>
   </sheetData>

--- a/backend/src/tmp/EDT.xlsx
+++ b/backend/src/tmp/EDT.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="230" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="182" uniqueCount="52">
   <si>
     <t>EDT</t>
   </si>
@@ -106,112 +106,67 @@
     <t>3</t>
   </si>
   <si>
-    <t>nuevo edt</t>
-  </si>
-  <si>
-    <t>desc</t>
+    <t>oooo</t>
+  </si>
+  <si>
+    <t>nnn</t>
+  </si>
+  <si>
+    <t>09-11-2023</t>
+  </si>
+  <si>
+    <t>02-12-2023</t>
+  </si>
+  <si>
+    <t>mmm</t>
+  </si>
+  <si>
+    <t>bbb</t>
+  </si>
+  <si>
+    <t>vvv</t>
+  </si>
+  <si>
+    <t>hhhhhhhhhhhhhhhhhh</t>
+  </si>
+  <si>
+    <t>rr</t>
+  </si>
+  <si>
+    <t>4</t>
+  </si>
+  <si>
+    <t>sdbv</t>
   </si>
   <si>
     <t>08-11-2023</t>
   </si>
   <si>
+    <t>gnf</t>
+  </si>
+  <si>
+    <t>uuuuu</t>
+  </si>
+  <si>
+    <t>5</t>
+  </si>
+  <si>
+    <t>nnnnnnnnnnn</t>
+  </si>
+  <si>
     <t>29-11-2023</t>
   </si>
   <si>
-    <t>ss</t>
-  </si>
-  <si>
-    <t>hhh</t>
-  </si>
-  <si>
-    <t>oooo</t>
-  </si>
-  <si>
-    <t>mi ent 2</t>
-  </si>
-  <si>
-    <t>111</t>
-  </si>
-  <si>
-    <t>4</t>
-  </si>
-  <si>
-    <t>fghn</t>
-  </si>
-  <si>
-    <t>02-11-2023</t>
-  </si>
-  <si>
-    <t>rec</t>
-  </si>
-  <si>
-    <t>hit</t>
-  </si>
-  <si>
-    <t>obs</t>
-  </si>
-  <si>
-    <t>oooooo</t>
-  </si>
-  <si>
-    <t>crit</t>
-  </si>
-  <si>
-    <t>5</t>
-  </si>
-  <si>
-    <t>nnn</t>
-  </si>
-  <si>
-    <t>09-11-2023</t>
-  </si>
-  <si>
-    <t>02-12-2023</t>
-  </si>
-  <si>
-    <t>mmm</t>
-  </si>
-  <si>
-    <t>bbb</t>
-  </si>
-  <si>
-    <t>vvv</t>
-  </si>
-  <si>
-    <t>hhhhhhhhhhhhhhhhhh</t>
-  </si>
-  <si>
-    <t>rr</t>
-  </si>
-  <si>
     <t>6</t>
   </si>
   <si>
-    <t>sdbv</t>
-  </si>
-  <si>
-    <t>gnf</t>
-  </si>
-  <si>
-    <t>uuuuu</t>
+    <t>scs</t>
+  </si>
+  <si>
+    <t>28-11-2023</t>
   </si>
   <si>
     <t>7</t>
-  </si>
-  <si>
-    <t>nnnnnnnnnnn</t>
-  </si>
-  <si>
-    <t>8</t>
-  </si>
-  <si>
-    <t>scs</t>
-  </si>
-  <si>
-    <t>28-11-2023</t>
-  </si>
-  <si>
-    <t>9</t>
   </si>
 </sst>
 </file>
@@ -612,7 +567,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H100"/>
+  <dimension ref="A1:H78"/>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
   <cols>
     <col min="1" max="1" width="25" customWidth="1"/>
@@ -1027,22 +982,22 @@
         <v>41</v>
       </c>
       <c r="C44" t="s">
-        <v>32</v>
+        <v>21</v>
       </c>
       <c r="D44" t="s">
         <v>42</v>
       </c>
       <c r="E44" t="s">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="F44" t="s">
         <v>43</v>
       </c>
       <c r="G44" t="s">
-        <v>44</v>
+        <v>32</v>
       </c>
       <c r="H44" t="s">
-        <v>45</v>
+        <v>32</v>
       </c>
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.25"/>
@@ -1064,7 +1019,7 @@
         <v>1</v>
       </c>
       <c r="B48" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
     </row>
     <row r="49" spans="1:8" x14ac:dyDescent="0.25"/>
@@ -1081,168 +1036,158 @@
         <v>3</v>
       </c>
     </row>
-    <row r="52" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A52">
-        <v>1</v>
-      </c>
-      <c r="B52" t="s">
+    <row r="52" spans="1:8" x14ac:dyDescent="0.25"/>
+    <row r="53" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A53" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B53" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C53" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D53" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="E53" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F53" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="G53" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="H53" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
+        <v>45</v>
+      </c>
+      <c r="B54" t="s">
+        <v>46</v>
+      </c>
+      <c r="C54" t="s">
+        <v>25</v>
+      </c>
+      <c r="D54" t="s">
+        <v>12</v>
+      </c>
+      <c r="E54" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="53" spans="1:8" x14ac:dyDescent="0.25"/>
-    <row r="54" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A54" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="B54" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="C54" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="D54" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="E54" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="F54" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="G54" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="H54" s="2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="55" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A55" t="s">
-        <v>48</v>
-      </c>
-      <c r="B55" t="s">
-        <v>37</v>
-      </c>
-      <c r="C55" t="s">
-        <v>49</v>
-      </c>
-      <c r="D55" t="s">
-        <v>50</v>
-      </c>
-      <c r="E55" t="s">
-        <v>51</v>
-      </c>
-      <c r="F55" t="s">
-        <v>52</v>
-      </c>
-      <c r="G55" t="s">
-        <v>53</v>
-      </c>
-      <c r="H55" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="56" spans="1:8" x14ac:dyDescent="0.25"/>
+      <c r="F54" t="s">
+        <v>25</v>
+      </c>
+      <c r="G54" t="s">
+        <v>25</v>
+      </c>
+      <c r="H54" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8" x14ac:dyDescent="0.25"/>
+    <row r="56" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A56" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
     <row r="57" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A57" s="2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="58" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A58" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="B58" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
+        <v>1</v>
+      </c>
+      <c r="B57" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8" x14ac:dyDescent="0.25"/>
     <row r="59" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A59">
-        <v>1</v>
-      </c>
-      <c r="B59" t="s">
-        <v>55</v>
+      <c r="A59" s="2" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="60" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A60">
-        <v>2</v>
-      </c>
-      <c r="B60" t="s">
-        <v>56</v>
+      <c r="A60" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B60" s="2" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="61" spans="1:8" x14ac:dyDescent="0.25"/>
     <row r="62" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A62" s="2" t="s">
-        <v>17</v>
+        <v>1</v>
+      </c>
+      <c r="B62" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C62" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D62" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="E62" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F62" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="G62" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="H62" s="2" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="63" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A63" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="B63" s="2" t="s">
-        <v>3</v>
+      <c r="A63" t="s">
+        <v>48</v>
+      </c>
+      <c r="B63" t="s">
+        <v>49</v>
+      </c>
+      <c r="C63" t="s">
+        <v>25</v>
+      </c>
+      <c r="D63" t="s">
+        <v>12</v>
+      </c>
+      <c r="E63" t="s">
+        <v>50</v>
+      </c>
+      <c r="F63" t="s">
+        <v>25</v>
+      </c>
+      <c r="G63" t="s">
+        <v>25</v>
+      </c>
+      <c r="H63" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="64" spans="1:8" x14ac:dyDescent="0.25"/>
     <row r="65" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A65" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="B65" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="C65" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="D65" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="E65" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="F65" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="G65" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="H65" s="2" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
     </row>
     <row r="66" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A66" t="s">
-        <v>57</v>
-      </c>
-      <c r="B66" t="s">
-        <v>58</v>
-      </c>
-      <c r="C66" t="s">
-        <v>21</v>
-      </c>
-      <c r="D66" t="s">
-        <v>33</v>
-      </c>
-      <c r="E66" t="s">
-        <v>13</v>
-      </c>
-      <c r="F66" t="s">
-        <v>59</v>
-      </c>
-      <c r="G66" t="s">
-        <v>49</v>
-      </c>
-      <c r="H66" t="s">
-        <v>49</v>
+      <c r="A66" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B66" s="2" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="67" spans="1:8" x14ac:dyDescent="0.25"/>
     <row r="68" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A68" s="2" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
     <row r="69" spans="1:8" x14ac:dyDescent="0.25">
@@ -1253,268 +1198,84 @@
         <v>3</v>
       </c>
     </row>
-    <row r="70" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A70">
-        <v>1</v>
-      </c>
-      <c r="B70" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="71" spans="1:8" x14ac:dyDescent="0.25"/>
+    <row r="70" spans="1:8" x14ac:dyDescent="0.25"/>
+    <row r="71" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A71" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B71" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C71" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D71" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="E71" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F71" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="G71" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="H71" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
     <row r="72" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A72" s="2" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="73" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A73" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="B73" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="74" spans="1:8" x14ac:dyDescent="0.25"/>
+      <c r="A72" t="s">
+        <v>51</v>
+      </c>
+      <c r="B72" t="s">
+        <v>24</v>
+      </c>
+      <c r="C72" t="s">
+        <v>25</v>
+      </c>
+      <c r="D72" t="s">
+        <v>28</v>
+      </c>
+      <c r="E72" t="s">
+        <v>50</v>
+      </c>
+      <c r="F72" t="s">
+        <v>25</v>
+      </c>
+      <c r="G72" t="s">
+        <v>25</v>
+      </c>
+      <c r="H72" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="73" spans="1:8" x14ac:dyDescent="0.25"/>
+    <row r="74" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A74" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
     <row r="75" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A75" s="2" t="s">
         <v>1</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="C75" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="D75" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="E75" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="F75" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="G75" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="H75" s="2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="76" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A76" t="s">
-        <v>61</v>
-      </c>
-      <c r="B76" t="s">
-        <v>62</v>
-      </c>
-      <c r="C76" t="s">
-        <v>25</v>
-      </c>
-      <c r="D76" t="s">
-        <v>12</v>
-      </c>
-      <c r="E76" t="s">
-        <v>34</v>
-      </c>
-      <c r="F76" t="s">
-        <v>25</v>
-      </c>
-      <c r="G76" t="s">
-        <v>25</v>
-      </c>
-      <c r="H76" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="77" spans="1:8" x14ac:dyDescent="0.25"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="76" spans="1:8" x14ac:dyDescent="0.25"/>
+    <row r="77" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A77" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
     <row r="78" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A78" s="2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="79" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A79" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="B79" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="80" spans="1:8" x14ac:dyDescent="0.25"/>
-    <row r="81" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A81" s="2" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="82" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A82" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="B82" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="83" spans="1:8" x14ac:dyDescent="0.25"/>
-    <row r="84" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A84" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="B84" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="C84" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="D84" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="E84" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="F84" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="G84" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="H84" s="2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="85" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A85" t="s">
-        <v>63</v>
-      </c>
-      <c r="B85" t="s">
-        <v>64</v>
-      </c>
-      <c r="C85" t="s">
-        <v>25</v>
-      </c>
-      <c r="D85" t="s">
-        <v>12</v>
-      </c>
-      <c r="E85" t="s">
-        <v>65</v>
-      </c>
-      <c r="F85" t="s">
-        <v>25</v>
-      </c>
-      <c r="G85" t="s">
-        <v>25</v>
-      </c>
-      <c r="H85" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="86" spans="1:8" x14ac:dyDescent="0.25"/>
-    <row r="87" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A87" s="2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="88" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A88" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="B88" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="89" spans="1:8" x14ac:dyDescent="0.25"/>
-    <row r="90" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A90" s="2" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="91" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A91" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="B91" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="92" spans="1:8" x14ac:dyDescent="0.25"/>
-    <row r="93" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A93" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="B93" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="C93" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="D93" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="E93" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="F93" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="G93" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="H93" s="2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="94" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A94" t="s">
-        <v>66</v>
-      </c>
-      <c r="B94" t="s">
-        <v>24</v>
-      </c>
-      <c r="C94" t="s">
-        <v>25</v>
-      </c>
-      <c r="D94" t="s">
-        <v>28</v>
-      </c>
-      <c r="E94" t="s">
-        <v>65</v>
-      </c>
-      <c r="F94" t="s">
-        <v>25</v>
-      </c>
-      <c r="G94" t="s">
-        <v>25</v>
-      </c>
-      <c r="H94" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="95" spans="1:8" x14ac:dyDescent="0.25"/>
-    <row r="96" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A96" s="2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="97" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A97" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="B97" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="98" spans="1:8" x14ac:dyDescent="0.25"/>
-    <row r="99" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A99" s="2" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="100" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A100" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="B100" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B78" s="2" t="s">
         <v>3</v>
       </c>
     </row>
